--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aghedupl.sharepoint.com/sites/IntegratedEnergyResourcePlanning-2024_2025_winter/Shared Documents/2024_2025_winter/Lab/2023.12.06 - Very Simple Times Model/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Downloads\2023.12.06 - Very Simple Times Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{211A4542-72C8-49B5-A803-BC7CE3750A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{974363EB-5C15-4195-B1A5-04C140721549}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3399D80-3F1A-4C13-9929-EEFAC4CC702A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" tabRatio="901" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="901" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -28,6 +28,9 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -36,7 +39,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -821,7 +823,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="133">
+  <si>
+    <t>Define commodities</t>
+  </si>
+  <si>
+    <t>Remember to Leave 1 Row/Column empty around each Veda Table</t>
+  </si>
   <si>
     <t>~FI_Comm</t>
   </si>
@@ -850,9 +858,84 @@
     <t>Ctype</t>
   </si>
   <si>
+    <t>\I: Commodity Set</t>
+  </si>
+  <si>
+    <t>Commodity Name</t>
+  </si>
+  <si>
+    <t>Commodity Description</t>
+  </si>
+  <si>
+    <t>Sense of Balance Equation</t>
+  </si>
+  <si>
+    <t>Timeslice Level</t>
+  </si>
+  <si>
+    <t>Peak Monitoring</t>
+  </si>
+  <si>
+    <t>Electricity Indicator (CHP)</t>
+  </si>
+  <si>
     <t>NRG</t>
   </si>
   <si>
+    <t>BROWN_COAL</t>
+  </si>
+  <si>
+    <t>Brown Coal</t>
+  </si>
+  <si>
+    <t>PJ</t>
+  </si>
+  <si>
+    <t>SEASON</t>
+  </si>
+  <si>
+    <t>DEM</t>
+  </si>
+  <si>
+    <t>ELEC_HV</t>
+  </si>
+  <si>
+    <t>High Voltage Electricity</t>
+  </si>
+  <si>
+    <t>DAYNITE</t>
+  </si>
+  <si>
+    <t>Available Commodity Sets</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>ENV</t>
+  </si>
+  <si>
+    <t>Emission</t>
+  </si>
+  <si>
+    <t>Demand</t>
+  </si>
+  <si>
+    <t>MAT</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>Financial</t>
+  </si>
+  <si>
+    <t>Define processes</t>
+  </si>
+  <si>
     <t>~FI_Process</t>
   </si>
   <si>
@@ -883,15 +966,120 @@
     <t>Vintage</t>
   </si>
   <si>
+    <t>\I: Process Set</t>
+  </si>
+  <si>
+    <t>Region Name</t>
+  </si>
+  <si>
+    <t>Technology Name</t>
+  </si>
+  <si>
+    <t>Technology Description</t>
+  </si>
+  <si>
+    <t>Activity Unit</t>
+  </si>
+  <si>
+    <t>Capacity Unit</t>
+  </si>
+  <si>
+    <t>Primary Commodity Froup</t>
+  </si>
+  <si>
+    <t>Vintage Tracking</t>
+  </si>
+  <si>
+    <t>ELE</t>
+  </si>
+  <si>
+    <t>ELE_EX_BELCHATOW</t>
+  </si>
+  <si>
+    <t>Belchatow Power Plant</t>
+  </si>
+  <si>
+    <t>GWe</t>
+  </si>
+  <si>
     <t>MIN</t>
   </si>
   <si>
+    <t>MIN_EX_BROWN_COAL</t>
+  </si>
+  <si>
+    <t>Brown Coal Mine</t>
+  </si>
+  <si>
+    <t>Pja</t>
+  </si>
+  <si>
+    <t>Power Plant (Electricity Only)</t>
+  </si>
+  <si>
+    <t>CHP</t>
+  </si>
+  <si>
+    <t>Combined Heat &amp; Power Plant</t>
+  </si>
+  <si>
+    <t>STG</t>
+  </si>
+  <si>
+    <t>Timeslice Storage</t>
+  </si>
+  <si>
+    <t>PRE</t>
+  </si>
+  <si>
+    <t>Generic Process</t>
+  </si>
+  <si>
+    <t>DMD</t>
+  </si>
+  <si>
+    <t>Demand Process</t>
+  </si>
+  <si>
+    <t>Should have commodity of type DEM as an output</t>
+  </si>
+  <si>
     <t>IMP</t>
   </si>
   <si>
+    <t>Import</t>
+  </si>
+  <si>
+    <t>Commodity only at Output</t>
+  </si>
+  <si>
+    <t>EXP</t>
+  </si>
+  <si>
+    <t>Eksport</t>
+  </si>
+  <si>
+    <t>Commodity only at Input</t>
+  </si>
+  <si>
+    <t>Mining</t>
+  </si>
+  <si>
+    <t>HPL</t>
+  </si>
+  <si>
+    <t>Heat Only Plant</t>
+  </si>
+  <si>
+    <t>Primary energy supply</t>
+  </si>
+  <si>
     <t>~FI_T</t>
   </si>
   <si>
+    <t>*TechDesc</t>
+  </si>
+  <si>
     <t>Comm-OUT</t>
   </si>
   <si>
@@ -901,307 +1089,139 @@
     <t>ACT_BND</t>
   </si>
   <si>
-    <t>Primary energy supply</t>
-  </si>
-  <si>
-    <t>ENV</t>
-  </si>
-  <si>
-    <t>DEM</t>
-  </si>
-  <si>
-    <t>MAT</t>
-  </si>
-  <si>
-    <t>FIN</t>
-  </si>
-  <si>
-    <t>Energy</t>
-  </si>
-  <si>
-    <t>Emission</t>
-  </si>
-  <si>
-    <t>Demand</t>
-  </si>
-  <si>
-    <t>Material</t>
-  </si>
-  <si>
-    <t>Financial</t>
-  </si>
-  <si>
-    <t>\I: Commodity Set</t>
-  </si>
-  <si>
-    <t>Commodity Name</t>
-  </si>
-  <si>
-    <t>Commodity Description</t>
-  </si>
-  <si>
-    <t>Sense of Balance Equation</t>
-  </si>
-  <si>
-    <t>Timeslice Level</t>
-  </si>
-  <si>
-    <t>Peak Monitoring</t>
-  </si>
-  <si>
-    <t>Electricity Indicator (CHP)</t>
-  </si>
-  <si>
-    <t>Define processes</t>
-  </si>
-  <si>
-    <t>Define commodities</t>
-  </si>
-  <si>
-    <t>ELE</t>
-  </si>
-  <si>
-    <t>CHP</t>
-  </si>
-  <si>
-    <t>STG</t>
-  </si>
-  <si>
-    <t>PRE</t>
-  </si>
-  <si>
-    <t>DMD</t>
-  </si>
-  <si>
-    <t>EXP</t>
-  </si>
-  <si>
-    <t>HPL</t>
-  </si>
-  <si>
-    <t>\I: Process Set</t>
-  </si>
-  <si>
-    <t>Region Name</t>
-  </si>
-  <si>
-    <t>Technology Name</t>
-  </si>
-  <si>
-    <t>Technology Description</t>
-  </si>
-  <si>
-    <t>Activity Unit</t>
-  </si>
-  <si>
-    <t>Capacity Unit</t>
-  </si>
-  <si>
-    <t>Primary Commodity Froup</t>
-  </si>
-  <si>
-    <t>Vintage Tracking</t>
-  </si>
-  <si>
-    <t>Power Plant (Electricity Only)</t>
-  </si>
-  <si>
-    <t>Combined Heat &amp; Power Plant</t>
-  </si>
-  <si>
-    <t>Timeslice Storage</t>
-  </si>
-  <si>
-    <t>Generic Process</t>
-  </si>
-  <si>
-    <t>Demand Process</t>
-  </si>
-  <si>
-    <t>Import</t>
-  </si>
-  <si>
-    <t>Eksport</t>
-  </si>
-  <si>
-    <t>Mining</t>
-  </si>
-  <si>
-    <t>Heat Only Plant</t>
-  </si>
-  <si>
-    <t>Commodity only at Output</t>
-  </si>
-  <si>
-    <t>Commodity only at Input</t>
-  </si>
-  <si>
     <t>\I: Technology Name</t>
   </si>
   <si>
     <t>Output Commodity</t>
   </si>
   <si>
+    <t>Extraction or Import cost</t>
+  </si>
+  <si>
     <t>Annual Activity Bound</t>
   </si>
   <si>
+    <t>\I: Unit</t>
+  </si>
+  <si>
+    <t>PLN/PJ</t>
+  </si>
+  <si>
+    <t>PJ/a</t>
+  </si>
+  <si>
+    <t>Power Plants - Energy Transformation</t>
+  </si>
+  <si>
+    <t>Comm-IN</t>
+  </si>
+  <si>
+    <t>STOCK</t>
+  </si>
+  <si>
+    <t>EFF</t>
+  </si>
+  <si>
+    <t>CAP2ACT</t>
+  </si>
+  <si>
+    <t>AFA</t>
+  </si>
+  <si>
+    <t>FIXOM</t>
+  </si>
+  <si>
+    <t>VAROM</t>
+  </si>
+  <si>
+    <t>Input Commodity</t>
+  </si>
+  <si>
+    <t>Capacity</t>
+  </si>
+  <si>
+    <t>Efficiency (output based)</t>
+  </si>
+  <si>
+    <t>Capacity to Activity Factor</t>
+  </si>
+  <si>
+    <t>Annual Availibility Factor</t>
+  </si>
+  <si>
+    <t>Fix Costs O&amp;M</t>
+  </si>
+  <si>
+    <t>Variable Cost O&amp;M</t>
+  </si>
+  <si>
+    <t>PJ output / PJ input</t>
+  </si>
+  <si>
+    <t>PJ / a / GWe</t>
+  </si>
+  <si>
+    <t>hours / 8760 hours</t>
+  </si>
+  <si>
+    <t>PLN / kWe</t>
+  </si>
+  <si>
+    <t>PLN / GJ Activity</t>
+  </si>
+  <si>
+    <t>Demand Technology</t>
+  </si>
+  <si>
+    <t>Final Energy Consumption</t>
+  </si>
+  <si>
+    <t>~FI_T:DEMAND</t>
+  </si>
+  <si>
+    <t>\I: Demand Commodity Name</t>
+  </si>
+  <si>
+    <t>Demand [PJ]</t>
+  </si>
+  <si>
+    <t>Technology Specific Fuel Emission Factors</t>
+  </si>
+  <si>
     <t>~PRCCOMEMI</t>
   </si>
   <si>
+    <t>&lt;- Fuel</t>
+  </si>
+  <si>
+    <t>Fuel2</t>
+  </si>
+  <si>
+    <t>Fuel3 …</t>
+  </si>
+  <si>
     <t>Emission Commodity Name</t>
   </si>
   <si>
-    <t>&lt;- Fuel</t>
-  </si>
-  <si>
-    <t>Fuel2</t>
-  </si>
-  <si>
-    <t>Fuel3 …</t>
-  </si>
-  <si>
-    <t>Technology Specific Fuel Emission Factors</t>
-  </si>
-  <si>
     <t>Emission Factor</t>
   </si>
   <si>
-    <t>*TechDesc</t>
-  </si>
-  <si>
-    <t>Comm-IN</t>
-  </si>
-  <si>
-    <t>EFF</t>
-  </si>
-  <si>
-    <t>CAP2ACT</t>
-  </si>
-  <si>
-    <t>STOCK</t>
-  </si>
-  <si>
-    <t>AFA</t>
-  </si>
-  <si>
-    <t>FIXOM</t>
-  </si>
-  <si>
-    <t>VAROM</t>
-  </si>
-  <si>
-    <t>Input Commodity</t>
-  </si>
-  <si>
-    <t>Capacity</t>
-  </si>
-  <si>
-    <t>Efficiency (output based)</t>
-  </si>
-  <si>
-    <t>Capacity to Activity Factor</t>
-  </si>
-  <si>
-    <t>Annual Availibility Factor</t>
-  </si>
-  <si>
-    <t>Fix Costs O&amp;M</t>
-  </si>
-  <si>
-    <t>Variable Cost O&amp;M</t>
-  </si>
-  <si>
-    <t>Power Plants - Energy Transformation</t>
-  </si>
-  <si>
-    <t>~FI_T:DEMAND</t>
-  </si>
-  <si>
-    <t>\I: Demand Commodity Name</t>
-  </si>
-  <si>
-    <t>Final Energy Consumption</t>
-  </si>
-  <si>
-    <t>Demand Technology</t>
-  </si>
-  <si>
-    <t>Available Commodity Sets</t>
-  </si>
-  <si>
-    <t>Remember to Leave 1 Row/Column empty around each Veda Table</t>
-  </si>
-  <si>
-    <t>PJ</t>
-  </si>
-  <si>
-    <t>SEASON</t>
-  </si>
-  <si>
-    <t>DAYNITE</t>
-  </si>
-  <si>
-    <t>BROWN_COAL</t>
-  </si>
-  <si>
-    <t>GWe</t>
-  </si>
-  <si>
-    <t>Demand [PJ]</t>
-  </si>
-  <si>
-    <t>Pja</t>
-  </si>
-  <si>
-    <t>Should have commodity of type DEM as an output</t>
-  </si>
-  <si>
-    <t>\I: Unit</t>
-  </si>
-  <si>
-    <t>PLN/PJ</t>
-  </si>
-  <si>
-    <t>PJ/a</t>
-  </si>
-  <si>
-    <t>Extraction or Import cost</t>
-  </si>
-  <si>
-    <t>ELE_EX_BELCHATOW</t>
-  </si>
-  <si>
-    <t>Belchatow Power Plant</t>
-  </si>
-  <si>
-    <t>MIN_EX_BROWN_COAL</t>
-  </si>
-  <si>
-    <t>Brown Coal Mine</t>
-  </si>
-  <si>
-    <t>ELEC_HV</t>
-  </si>
-  <si>
-    <t>Brown Coal</t>
-  </si>
-  <si>
-    <t>High Voltage Electricity</t>
-  </si>
-  <si>
-    <t>PJ output / PJ input</t>
-  </si>
-  <si>
-    <t>PJ / a / GWe</t>
-  </si>
-  <si>
-    <t>hours / 8760 hours</t>
-  </si>
-  <si>
-    <t>PLN / kWe</t>
-  </si>
-  <si>
-    <t>PLN / GJ Activity</t>
+    <t>MIN_EX_</t>
+  </si>
+  <si>
+    <t>ELE_EX_JAWOZNO</t>
+  </si>
+  <si>
+    <t>Jawozno Power Plant</t>
+  </si>
+  <si>
+    <t>HARD_COAL</t>
+  </si>
+  <si>
+    <t>Hard Coal</t>
+  </si>
+  <si>
+    <t>Hard Coal Mine</t>
   </si>
 </sst>
 </file>
@@ -2437,12 +2457,8 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="277"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="277" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="277" applyFont="1" applyAlignment="1">
@@ -2500,7 +2516,6 @@
     <xf numFmtId="2" fontId="5" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2510,42 +2525,18 @@
     <xf numFmtId="0" fontId="52" fillId="28" borderId="10" xfId="277" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="3" fillId="28" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="25" borderId="13" xfId="274" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="3" fillId="28" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="25" borderId="12" xfId="274" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="27" borderId="12" xfId="278" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="53" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2588,27 +2579,6 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="339"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="339" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="52" fillId="28" borderId="16" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2621,69 +2591,215 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="17" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="52" fillId="28" borderId="18" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="28" borderId="18" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="12" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="27" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="12" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="27" borderId="12" xfId="278" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="339" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="339" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="339" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="59" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2693,6 +2809,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="340">
@@ -2969,7 +3088,6 @@
     <cellStyle name="Neutralne 6" xfId="271" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
     <cellStyle name="Neutralne 7" xfId="272" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
     <cellStyle name="Neutralne 8" xfId="273" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="274" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
     <cellStyle name="Normal 2" xfId="275" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
     <cellStyle name="Normal 3" xfId="276" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
@@ -2977,6 +3095,7 @@
     <cellStyle name="Normal_MIN" xfId="277" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
     <cellStyle name="Normal_PRC" xfId="278" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
     <cellStyle name="Normale_B2020" xfId="279" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny 2" xfId="280" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
     <cellStyle name="Normalny 3" xfId="281" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
     <cellStyle name="Normalny 4" xfId="282" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
@@ -3056,7 +3175,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="IEA Data"/>
@@ -3535,267 +3654,278 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="8" width="12.85546875" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="3" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" style="58" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="58" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" style="58" customWidth="1"/>
+    <col min="4" max="4" width="32.88671875" style="58" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="58" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="58" customWidth="1"/>
+    <col min="7" max="8" width="12.88671875" style="58" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="58" customWidth="1"/>
+    <col min="10" max="10" width="3" style="58" customWidth="1"/>
+    <col min="11" max="11" width="13.109375" style="58" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" style="58" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="58"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="18.75" thickBot="1">
-      <c r="B2" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+    <row r="2" spans="1:11" ht="17.399999999999999">
+      <c r="B2" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="100"/>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="117" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="17.45" customHeight="1">
-      <c r="A4" s="104"/>
-      <c r="B4" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="117"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="123" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="17.399999999999999" customHeight="1">
+      <c r="A4" s="66"/>
+      <c r="B4" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="123"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="104"/>
-      <c r="B5" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="33" t="s">
+      <c r="A5" s="66"/>
+      <c r="B5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="C5" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="D5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="E5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="F5" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="G5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="106"/>
-      <c r="K5" s="117"/>
-    </row>
-    <row r="6" spans="1:11" ht="31.7" customHeight="1" thickBot="1">
-      <c r="A6" s="104"/>
-      <c r="B6" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="106"/>
-      <c r="K6" s="117"/>
+      <c r="H5" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="69"/>
+      <c r="K5" s="123"/>
+    </row>
+    <row r="6" spans="1:11" ht="31.65" customHeight="1" thickBot="1">
+      <c r="A6" s="66"/>
+      <c r="B6" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="69"/>
+      <c r="K6" s="123"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A7" s="104"/>
-      <c r="B7" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="E7" s="110" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="117"/>
+      <c r="A7" s="66"/>
+      <c r="B7" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="73"/>
+      <c r="G7" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="123"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A8" s="104"/>
-      <c r="B8" s="39" t="s">
+      <c r="A8" s="66"/>
+      <c r="B8" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="76" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="77"/>
+      <c r="G8" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="123"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A9" s="66"/>
+      <c r="B9" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="71" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="70" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="73"/>
+      <c r="G9" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="123"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A10" s="66"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="123"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A11" s="66"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="123"/>
+    </row>
+    <row r="12" spans="1:11" ht="13.8" thickBot="1">
+      <c r="A12" s="84"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="123"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B15" s="122" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="122"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B16" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="E8" s="111" t="s">
-        <v>103</v>
-      </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="117"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A9" s="104"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="117"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A10" s="104"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="117"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="104"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="117"/>
-    </row>
-    <row r="12" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A12" s="107"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="117"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1"/>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B15" s="116" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" s="116"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B16" s="96" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="96" t="s">
+    </row>
+    <row r="17" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B17" s="88" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="88" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B18" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="89" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B17" s="97" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="97" t="s">
+    <row r="19" spans="2:3">
+      <c r="B19" s="88" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B18" s="98" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="98" t="s">
+      <c r="C19" s="88" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="97" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="97" t="s">
+    <row r="20" spans="2:3">
+      <c r="B20" s="90" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" ht="13.5" thickBot="1">
-      <c r="B20" s="99" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="99" t="s">
+      <c r="C20" s="90" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3816,275 +3946,300 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:J24"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" customWidth="1"/>
-    <col min="6" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" style="58" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="58" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" style="58" customWidth="1"/>
+    <col min="4" max="4" width="25" style="58" customWidth="1"/>
+    <col min="5" max="5" width="28.5546875" style="58" customWidth="1"/>
+    <col min="6" max="7" width="10" style="58" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="58" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" style="58" customWidth="1"/>
+    <col min="10" max="10" width="10" style="58" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="58"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="A2" s="91"/>
+      <c r="B2" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B4" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
+      <c r="B4" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="67"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B5" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="48" t="s">
+      <c r="B5" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="47.25" customHeight="1">
+      <c r="B6" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="48" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="47.25" customHeight="1" thickBot="1">
-      <c r="B6" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="49" t="s">
+      <c r="I6" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="J6" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="49" t="s">
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B7" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="C7" s="71"/>
+      <c r="D7" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="E7" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="49" t="s">
+      <c r="F7" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="J6" s="49" t="s">
+      <c r="H7" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B8" s="74" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B7" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" s="110" t="s">
-        <v>116</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="G7" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="H7" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B8" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="E8" s="111" t="s">
-        <v>118</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="G8" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="H8" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="74" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B9" s="35"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
+      <c r="B9" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="71"/>
+      <c r="D9" s="70" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="72" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B10" s="39"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
+      <c r="B10" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="75"/>
+      <c r="D10" s="74" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" s="126" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10" s="74" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="74" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B11" s="35"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B12" s="50"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B12" s="94"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="97"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="B16" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="54" t="s">
-        <v>60</v>
+      <c r="B16" s="98" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="98" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="54" t="s">
-        <v>61</v>
+      <c r="B17" s="98" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="98" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="54" t="s">
-        <v>62</v>
+      <c r="B18" s="98" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="98" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="54" t="s">
-        <v>63</v>
+      <c r="B19" s="98" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="98" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="54" t="s">
-        <v>110</v>
+      <c r="B20" s="98" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="98" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="98" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="54" t="s">
-        <v>69</v>
+      <c r="B21" s="98" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="98" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="98" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="54" t="s">
-        <v>70</v>
+      <c r="B22" s="98" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="98" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="54" t="s">
-        <v>69</v>
+      <c r="B23" s="98" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="98" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="98" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="54" t="s">
-        <v>68</v>
+      <c r="B24" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="98" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -4100,238 +4255,251 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="8" max="10" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="8" max="10" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-    </row>
-    <row r="2" spans="1:20" ht="18">
-      <c r="A2" s="5"/>
-      <c r="B2" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
+      <c r="A1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:20" ht="17.399999999999999">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="D4" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
+      <c r="A4" s="1"/>
+      <c r="D4" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-    </row>
-    <row r="6" spans="1:20" ht="26.25" thickBot="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6" s="14"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-    </row>
-    <row r="7" spans="1:20" ht="13.5" thickBot="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="112" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112" t="s">
-        <v>112</v>
-      </c>
-      <c r="F7" s="112" t="s">
-        <v>113</v>
-      </c>
-      <c r="G7" s="14"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" ht="27" thickBot="1">
+      <c r="A6" s="1"/>
+      <c r="B6" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" ht="13.8" thickBot="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B8" s="15" t="str">
+      <c r="B8" s="11" t="str">
         <f>SEC_Processes!D8</f>
         <v>MIN_EX_BROWN_COAL</v>
       </c>
-      <c r="C8" s="15" t="str">
+      <c r="C8" s="11" t="str">
         <f>SEC_Processes!E8</f>
         <v>Brown Coal Mine</v>
       </c>
-      <c r="D8" s="18" t="str">
+      <c r="D8" s="14" t="str">
         <f>SEC_Comm!C7</f>
         <v>BROWN_COAL</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="13">
         <v>100</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="12">
         <v>700</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="22"/>
+      <c r="B9" s="16" t="str">
+        <f>SEC_Processes!D9</f>
+        <v>MIN_EX_</v>
+      </c>
+      <c r="C9" s="16" t="str">
+        <f>SEC_Processes!E9</f>
+        <v>Hard Coal Mine</v>
+      </c>
+      <c r="D9" s="17" t="str">
+        <f>SEC_Comm!C9</f>
+        <v>HARD_COAL</v>
+      </c>
+      <c r="E9" s="19">
+        <v>200</v>
+      </c>
+      <c r="F9" s="18">
+        <v>1000</v>
+      </c>
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="16"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="22"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="16"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="26"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="33" type="noConversion"/>
@@ -4345,198 +4513,224 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8885B33B-6004-4066-985A-D9E4166DC0DF}">
   <dimension ref="B2:L15"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="11" width="11.42578125" customWidth="1"/>
-    <col min="12" max="12" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="58" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="58" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" style="58" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" style="58" customWidth="1"/>
+    <col min="5" max="11" width="11.44140625" style="58" customWidth="1"/>
+    <col min="12" max="12" width="8.5546875" style="58" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="58"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="18">
-      <c r="B2" s="93" t="s">
+    <row r="2" spans="2:12" ht="17.399999999999999">
+      <c r="B2" s="99" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="104"/>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="104"/>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="E4" s="108" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="108"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="76"/>
-    </row>
-    <row r="3" spans="2:12">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="76"/>
-    </row>
-    <row r="4" spans="2:12">
-      <c r="E4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="60"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-    </row>
-    <row r="5" spans="2:12">
-      <c r="B5" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="82" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="81" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="81" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="83" t="s">
+      <c r="E5" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="83" t="s">
-        <v>83</v>
-      </c>
-      <c r="H5" s="83" t="s">
-        <v>84</v>
-      </c>
-      <c r="I5" s="83" t="s">
-        <v>86</v>
-      </c>
-      <c r="J5" s="83" t="s">
-        <v>87</v>
-      </c>
-      <c r="K5" s="83" t="s">
+      <c r="F5" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="I5" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="J5" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="K5" s="51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="39.6">
+      <c r="B6" s="24" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" ht="39" thickBot="1">
-      <c r="B6" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="29" t="s">
+      <c r="C6" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="114" t="s">
-        <v>90</v>
-      </c>
-      <c r="G6" s="114" t="s">
-        <v>91</v>
-      </c>
-      <c r="H6" s="114" t="s">
+      <c r="F6" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="I6" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="J6" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="K6" s="56" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="26.4">
+      <c r="B7" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="I6" s="114" t="s">
-        <v>93</v>
-      </c>
-      <c r="J6" s="114" t="s">
-        <v>94</v>
-      </c>
-      <c r="K6" s="114" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="26.25" thickBot="1">
-      <c r="B7" s="112" t="s">
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="115" t="s">
-        <v>107</v>
-      </c>
-      <c r="G7" s="115" t="s">
-        <v>122</v>
-      </c>
-      <c r="H7" s="115" t="s">
-        <v>123</v>
-      </c>
-      <c r="I7" s="115" t="s">
-        <v>124</v>
-      </c>
-      <c r="J7" s="115" t="s">
-        <v>125</v>
-      </c>
-      <c r="K7" s="115" t="s">
-        <v>126</v>
+      <c r="I7" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="J7" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="K7" s="57" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="62" t="str">
+      <c r="B8" s="111" t="str">
         <f>SEC_Processes!D7</f>
         <v>ELE_EX_BELCHATOW</v>
       </c>
-      <c r="C8" s="62" t="str">
+      <c r="C8" s="111" t="str">
         <f>SEC_Processes!E7</f>
         <v>Belchatow Power Plant</v>
       </c>
-      <c r="D8" s="85" t="str">
+      <c r="D8" s="112" t="str">
         <f>SEC_Comm!C7</f>
         <v>BROWN_COAL</v>
       </c>
-      <c r="E8" s="85" t="str">
+      <c r="E8" s="112" t="str">
         <f>SEC_Comm!C8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="F8" s="86">
+      <c r="F8" s="113">
         <v>6.5</v>
       </c>
-      <c r="G8" s="86">
+      <c r="G8" s="113">
         <v>0.3</v>
       </c>
-      <c r="H8" s="87">
+      <c r="H8" s="114">
         <v>31.536000000000001</v>
       </c>
-      <c r="I8" s="87">
+      <c r="I8" s="114">
         <v>1</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="115">
         <v>1</v>
       </c>
-      <c r="K8" s="87">
+      <c r="K8" s="114">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92"/>
+    <row r="9" spans="2:12">
+      <c r="B9" s="116" t="str">
+        <f>SEC_Processes!D10</f>
+        <v>ELE_EX_JAWOZNO</v>
+      </c>
+      <c r="C9" s="116" t="str">
+        <f>SEC_Processes!E10</f>
+        <v>Jawozno Power Plant</v>
+      </c>
+      <c r="D9" s="117" t="str">
+        <f>SEC_Comm!C9</f>
+        <v>HARD_COAL</v>
+      </c>
+      <c r="E9" s="117" t="str">
+        <f>SEC_Comm!C8</f>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="F9" s="118">
+        <v>1.345</v>
+      </c>
+      <c r="G9" s="118">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="H9" s="119">
+        <f>H8</f>
+        <v>31.536000000000001</v>
+      </c>
+      <c r="I9" s="119">
+        <v>1</v>
+      </c>
+      <c r="J9" s="120">
+        <v>1</v>
+      </c>
+      <c r="K9" s="120">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="2:12">
-      <c r="E14" s="113"/>
+      <c r="E14" s="121"/>
     </row>
     <row r="15" spans="2:12">
-      <c r="E15" s="113"/>
+      <c r="E15" s="121"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4549,194 +4743,200 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31854235-9EEE-44B2-8649-8E7FE48F8F70}">
   <dimension ref="B2:K19"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A9" zoomScale="141" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="11" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="58"/>
+    <col min="2" max="2" width="17.109375" style="58" customWidth="1"/>
+    <col min="3" max="11" width="11.44140625" style="58" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="58"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="18">
-      <c r="B2" s="93" t="s">
+    <row r="2" spans="2:11" ht="17.399999999999999">
+      <c r="B2" s="99" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="103"/>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="103"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="E4" s="108" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="108"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="I5" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="75"/>
-    </row>
-    <row r="3" spans="2:11">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="75"/>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="E4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="60"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="82" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="81" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="81" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="83" t="s">
-        <v>85</v>
-      </c>
-      <c r="G5" s="83" t="s">
-        <v>83</v>
-      </c>
-      <c r="H5" s="83" t="s">
-        <v>84</v>
-      </c>
-      <c r="I5" s="83" t="s">
-        <v>86</v>
-      </c>
-      <c r="J5" s="83" t="s">
-        <v>87</v>
-      </c>
-      <c r="K5" s="83" t="s">
+      <c r="J5" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="K5" s="51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="39.6">
+      <c r="B6" s="24" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="6" spans="2:11" ht="39" thickBot="1">
-      <c r="B6" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="29" t="s">
+      <c r="C6" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="84" t="s">
-        <v>90</v>
-      </c>
-      <c r="G6" s="84" t="s">
-        <v>91</v>
-      </c>
-      <c r="H6" s="84" t="s">
-        <v>92</v>
-      </c>
-      <c r="I6" s="84" t="s">
-        <v>93</v>
-      </c>
-      <c r="J6" s="84" t="s">
-        <v>94</v>
-      </c>
-      <c r="K6" s="84" t="s">
-        <v>95</v>
+      <c r="F6" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="I6" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="J6" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="K6" s="52" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="87"/>
-    </row>
-    <row r="8" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="91"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
-    </row>
-    <row r="10" spans="2:11" ht="18">
-      <c r="B10" s="93" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="114"/>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+    </row>
+    <row r="10" spans="2:11" ht="17.399999999999999">
+      <c r="B10" s="99" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="60" t="s">
-        <v>97</v>
+      <c r="B15" s="108" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="81" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="94">
+      <c r="B16" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="53">
         <v>2020</v>
       </c>
-      <c r="D16" s="94">
+      <c r="D16" s="53">
         <v>2021</v>
       </c>
-      <c r="E16" s="95">
+      <c r="E16" s="54">
         <v>2025</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="26.25" thickBot="1">
-      <c r="B17" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" s="118" t="s">
-        <v>108</v>
-      </c>
-      <c r="D17" s="118"/>
-      <c r="E17" s="118"/>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="62" t="str">
+    <row r="17" spans="2:7" ht="26.4">
+      <c r="B17" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="124" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="124"/>
+      <c r="E17" s="124"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="111" t="str">
         <f>SEC_Comm!C8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="C18" s="85">
+      <c r="C18" s="112">
         <v>200</v>
       </c>
-      <c r="D18" s="85"/>
-      <c r="E18" s="86"/>
-    </row>
-    <row r="19" spans="2:5" ht="13.5" thickBot="1">
-      <c r="B19" s="88"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="90"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="113"/>
+      <c r="G18" s="58">
+        <f>+C18/PP!G8</f>
+        <v>666.66666666666674</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="116"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4751,107 +4951,107 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9957A375-FEFC-4DDE-99F9-B11B17811EEC}">
   <dimension ref="B2:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="15">
-      <c r="B2" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
+      <c r="B2" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="35"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="59"/>
-      <c r="C4" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="H5" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="I5" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="J5" s="54" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="39" thickBot="1">
-      <c r="B6" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="119" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
+      <c r="B5" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="H5" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="40.200000000000003" thickBot="1">
+      <c r="B6" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="125" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="62"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="65"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="62"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="65"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-    </row>
-    <row r="11" spans="2:10" ht="13.5" thickBot="1">
-      <c r="B11" s="68"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+    </row>
+    <row r="11" spans="2:10" ht="13.8" thickBot="1">
+      <c r="B11" s="45"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4862,14 +5062,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1ada55d1baadc38a59b37f146ad1da21">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6148ddbe210b331c9edc42bf7e0f90a" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="56d16bfd38a93d3246b87ec2f908dfef">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3e7776de10091f04de0bec4c5ba2ee03" ns2:_="">
     <xsd:import namespace="95645557-b925-4e14-b9c3-bb0dccab904e"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -4921,8 +5115,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Typ zawartości"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Tytuł"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -5011,7 +5205,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -5020,30 +5214,43 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41AB35AE-AE16-422C-95C7-3A91F3841299}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24FCF40F-3BC7-4547-9987-907AA96C148C}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Downloads\2023.12.06 - Very Simple Times Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3399D80-3F1A-4C13-9929-EEFAC4CC702A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A8DF6B-D9BC-4256-B719-A5816686EF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="901" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -31,16 +31,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -823,7 +813,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="131">
   <si>
     <t>Define commodities</t>
   </si>
@@ -1206,22 +1196,16 @@
     <t>Emission Factor</t>
   </si>
   <si>
-    <t>MIN_EX_</t>
-  </si>
-  <si>
-    <t>ELE_EX_JAWOZNO</t>
-  </si>
-  <si>
-    <t>Jawozno Power Plant</t>
-  </si>
-  <si>
-    <t>HARD_COAL</t>
-  </si>
-  <si>
-    <t>Hard Coal</t>
-  </si>
-  <si>
-    <t>Hard Coal Mine</t>
+    <t>Wind Mine</t>
+  </si>
+  <si>
+    <t>WIND_ON</t>
+  </si>
+  <si>
+    <t>Wind Onshore</t>
+  </si>
+  <si>
+    <t>MIN_EX_WIND_ON</t>
   </si>
 </sst>
 </file>
@@ -2798,6 +2782,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="59" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2809,9 +2796,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="340">
@@ -3654,27 +3638,27 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:K20"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" style="58" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="58" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" style="58" customWidth="1"/>
-    <col min="4" max="4" width="32.88671875" style="58" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="58" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="58" customWidth="1"/>
-    <col min="7" max="8" width="12.88671875" style="58" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" style="58" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" style="58" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="58" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" style="58" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" style="58" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="58" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="58" customWidth="1"/>
+    <col min="7" max="8" width="12.85546875" style="58" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="58" customWidth="1"/>
     <col min="10" max="10" width="3" style="58" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" style="58" customWidth="1"/>
-    <col min="12" max="12" width="12.5546875" style="58" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="58"/>
+    <col min="11" max="11" width="13.140625" style="58" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="58" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="58"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="17.399999999999999">
+    <row r="2" spans="1:11" ht="18">
       <c r="B2" s="59" t="s">
         <v>0</v>
       </c>
@@ -3697,11 +3681,11 @@
       <c r="H3" s="64"/>
       <c r="I3" s="64"/>
       <c r="J3" s="65"/>
-      <c r="K3" s="123" t="s">
+      <c r="K3" s="124" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="17.399999999999999" customHeight="1">
+    <row r="4" spans="1:11" ht="17.45" customHeight="1">
       <c r="A4" s="66"/>
       <c r="B4" s="67" t="s">
         <v>2</v>
@@ -3714,7 +3698,7 @@
       <c r="H4" s="68"/>
       <c r="I4" s="68"/>
       <c r="J4" s="69"/>
-      <c r="K4" s="123"/>
+      <c r="K4" s="124"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="A5" s="66"/>
@@ -3743,9 +3727,9 @@
         <v>10</v>
       </c>
       <c r="J5" s="69"/>
-      <c r="K5" s="123"/>
-    </row>
-    <row r="6" spans="1:11" ht="31.65" customHeight="1" thickBot="1">
+      <c r="K5" s="124"/>
+    </row>
+    <row r="6" spans="1:11" ht="31.7" customHeight="1" thickBot="1">
       <c r="A6" s="66"/>
       <c r="B6" s="28" t="s">
         <v>11</v>
@@ -3772,7 +3756,7 @@
         <v>17</v>
       </c>
       <c r="J6" s="69"/>
-      <c r="K6" s="123"/>
+      <c r="K6" s="124"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="A7" s="66"/>
@@ -3795,7 +3779,7 @@
       <c r="H7" s="73"/>
       <c r="I7" s="73"/>
       <c r="J7" s="69"/>
-      <c r="K7" s="123"/>
+      <c r="K7" s="124"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="A8" s="66"/>
@@ -3818,7 +3802,7 @@
       <c r="H8" s="77"/>
       <c r="I8" s="77"/>
       <c r="J8" s="69"/>
-      <c r="K8" s="123"/>
+      <c r="K8" s="124"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="A9" s="66"/>
@@ -3826,10 +3810,10 @@
         <v>18</v>
       </c>
       <c r="C9" s="71" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D9" s="70" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E9" s="72" t="s">
         <v>21</v>
@@ -3841,7 +3825,7 @@
       <c r="H9" s="73"/>
       <c r="I9" s="73"/>
       <c r="J9" s="69"/>
-      <c r="K9" s="123"/>
+      <c r="K9" s="124"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="A10" s="66"/>
@@ -3854,7 +3838,7 @@
       <c r="H10" s="77"/>
       <c r="I10" s="77"/>
       <c r="J10" s="69"/>
-      <c r="K10" s="123"/>
+      <c r="K10" s="124"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A11" s="66"/>
@@ -3867,9 +3851,9 @@
       <c r="H11" s="83"/>
       <c r="I11" s="83"/>
       <c r="J11" s="69"/>
-      <c r="K11" s="123"/>
-    </row>
-    <row r="12" spans="1:11" ht="13.8" thickBot="1">
+      <c r="K11" s="124"/>
+    </row>
+    <row r="12" spans="1:11" ht="13.5" thickBot="1">
       <c r="A12" s="84"/>
       <c r="B12" s="85"/>
       <c r="C12" s="85"/>
@@ -3880,14 +3864,14 @@
       <c r="H12" s="85"/>
       <c r="I12" s="85"/>
       <c r="J12" s="86"/>
-      <c r="K12" s="123"/>
+      <c r="K12" s="124"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="15" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B15" s="122" t="s">
+      <c r="B15" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="122"/>
+      <c r="C15" s="123"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1">
       <c r="B16" s="87" t="s">
@@ -3947,21 +3931,21 @@
   <dimension ref="A2:J24"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" style="58" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="58" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" style="58" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" style="58" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="58" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="58" customWidth="1"/>
     <col min="4" max="4" width="25" style="58" customWidth="1"/>
-    <col min="5" max="5" width="28.5546875" style="58" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" style="58" customWidth="1"/>
     <col min="6" max="7" width="10" style="58" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" style="58" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" style="58" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="58" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="58" customWidth="1"/>
     <col min="10" max="10" width="10" style="58" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="58"/>
+    <col min="11" max="16384" width="9.140625" style="58"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="18" customHeight="1">
@@ -4096,10 +4080,10 @@
       </c>
       <c r="C9" s="71"/>
       <c r="D9" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="72" t="s">
         <v>127</v>
-      </c>
-      <c r="E9" s="72" t="s">
-        <v>132</v>
       </c>
       <c r="F9" s="70" t="s">
         <v>21</v>
@@ -4114,25 +4098,13 @@
       <c r="J9" s="73"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B10" s="74" t="s">
-        <v>55</v>
-      </c>
+      <c r="B10" s="74"/>
       <c r="C10" s="75"/>
-      <c r="D10" s="74" t="s">
-        <v>128</v>
-      </c>
-      <c r="E10" s="126" t="s">
-        <v>129</v>
-      </c>
-      <c r="F10" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="74" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="74" t="s">
-        <v>26</v>
-      </c>
+      <c r="D10" s="74"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
       <c r="I10" s="77"/>
       <c r="J10" s="77"/>
     </row>
@@ -4256,18 +4228,18 @@
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
-    <col min="8" max="10" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="8" max="10" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -4291,7 +4263,7 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:20" ht="17.399999999999999">
+    <row r="2" spans="1:20" ht="18">
       <c r="A2" s="1"/>
       <c r="B2" s="6" t="s">
         <v>82</v>
@@ -4379,7 +4351,7 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:20" ht="27" thickBot="1">
+    <row r="6" spans="1:20" ht="26.25" thickBot="1">
       <c r="A6" s="1"/>
       <c r="B6" s="24" t="s">
         <v>88</v>
@@ -4408,7 +4380,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:20" ht="13.8" thickBot="1">
+    <row r="7" spans="1:20" ht="13.5" thickBot="1">
       <c r="A7" s="1"/>
       <c r="B7" s="55" t="s">
         <v>92</v>
@@ -4456,22 +4428,20 @@
     <row r="9" spans="1:20" ht="15.75" customHeight="1">
       <c r="B9" s="16" t="str">
         <f>SEC_Processes!D9</f>
-        <v>MIN_EX_</v>
+        <v>MIN_EX_WIND_ON</v>
       </c>
       <c r="C9" s="16" t="str">
         <f>SEC_Processes!E9</f>
-        <v>Hard Coal Mine</v>
+        <v>Wind Mine</v>
       </c>
       <c r="D9" s="17" t="str">
         <f>SEC_Comm!C9</f>
-        <v>HARD_COAL</v>
+        <v>WIND_ON</v>
       </c>
       <c r="E9" s="19">
-        <v>200</v>
-      </c>
-      <c r="F9" s="18">
-        <v>1000</v>
-      </c>
+        <v>1E-3</v>
+      </c>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1">
       <c r="B10" s="11"/>
@@ -4517,18 +4487,18 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="58" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" style="58" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" style="58" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" style="58" customWidth="1"/>
-    <col min="5" max="11" width="11.44140625" style="58" customWidth="1"/>
-    <col min="12" max="12" width="8.5546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="58"/>
+    <col min="1" max="1" width="4.7109375" style="58" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="58" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="58" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="58" customWidth="1"/>
+    <col min="5" max="11" width="11.42578125" style="58" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" style="58" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="58"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="17.399999999999999">
+    <row r="2" spans="2:12" ht="18">
       <c r="B2" s="99" t="s">
         <v>95</v>
       </c>
@@ -4595,7 +4565,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="39.6">
+    <row r="6" spans="2:12" ht="38.25">
       <c r="B6" s="24" t="s">
         <v>88</v>
       </c>
@@ -4627,7 +4597,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="26.4">
+    <row r="7" spans="2:12" ht="25.5">
       <c r="B7" s="55" t="s">
         <v>92</v>
       </c>
@@ -4690,17 +4660,17 @@
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="116" t="str">
+      <c r="B9" s="116">
         <f>SEC_Processes!D10</f>
-        <v>ELE_EX_JAWOZNO</v>
-      </c>
-      <c r="C9" s="116" t="str">
+        <v>0</v>
+      </c>
+      <c r="C9" s="116">
         <f>SEC_Processes!E10</f>
-        <v>Jawozno Power Plant</v>
+        <v>0</v>
       </c>
       <c r="D9" s="117" t="str">
         <f>SEC_Comm!C9</f>
-        <v>HARD_COAL</v>
+        <v>WIND_ON</v>
       </c>
       <c r="E9" s="117" t="str">
         <f>SEC_Comm!C8</f>
@@ -4747,15 +4717,15 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="58"/>
-    <col min="2" max="2" width="17.109375" style="58" customWidth="1"/>
-    <col min="3" max="11" width="11.44140625" style="58" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="58"/>
+    <col min="1" max="1" width="9.140625" style="58"/>
+    <col min="2" max="2" width="17.140625" style="58" customWidth="1"/>
+    <col min="3" max="11" width="11.42578125" style="58" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="58"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="17.399999999999999">
+    <row r="2" spans="2:11" ht="18">
       <c r="B2" s="99" t="s">
         <v>115</v>
       </c>
@@ -4821,7 +4791,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="39.6">
+    <row r="6" spans="2:11" ht="38.25">
       <c r="B6" s="24" t="s">
         <v>88</v>
       </c>
@@ -4877,7 +4847,7 @@
       <c r="J8" s="120"/>
       <c r="K8" s="120"/>
     </row>
-    <row r="10" spans="2:11" ht="17.399999999999999">
+    <row r="10" spans="2:11" ht="18">
       <c r="B10" s="99" t="s">
         <v>116</v>
       </c>
@@ -4907,15 +4877,15 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="26.4">
+    <row r="17" spans="2:7" ht="25.5">
       <c r="B17" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="C17" s="124" t="s">
+      <c r="C17" s="125" t="s">
         <v>119</v>
       </c>
-      <c r="D17" s="124"/>
-      <c r="E17" s="124"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="125"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="111" t="str">
@@ -4951,14 +4921,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9957A375-FEFC-4DDE-99F9-B11B17811EEC}">
   <dimension ref="B2:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="15">
@@ -5005,18 +4975,18 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="40.200000000000003" thickBot="1">
+    <row r="6" spans="2:10" ht="39" thickBot="1">
       <c r="B6" s="24" t="s">
         <v>88</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="125" t="s">
+      <c r="D6" s="126" t="s">
         <v>126</v>
       </c>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="39"/>
@@ -5046,7 +5016,7 @@
       <c r="E10" s="44"/>
       <c r="F10" s="44"/>
     </row>
-    <row r="11" spans="2:10" ht="13.8" thickBot="1">
+    <row r="11" spans="2:10" ht="13.5" thickBot="1">
       <c r="B11" s="45"/>
       <c r="C11" s="46"/>
       <c r="D11" s="47"/>
@@ -5206,18 +5176,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5239,18 +5209,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A8DF6B-D9BC-4256-B719-A5816686EF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56EF08F-78E3-4678-95BD-E95AAD0CE2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -813,7 +813,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="133">
   <si>
     <t>Define commodities</t>
   </si>
@@ -1206,6 +1206,12 @@
   </si>
   <si>
     <t>MIN_EX_WIND_ON</t>
+  </si>
+  <si>
+    <t>ELE_EX_WIND_TURBINE</t>
+  </si>
+  <si>
+    <t>Wind Turbine Onshore</t>
   </si>
 </sst>
 </file>
@@ -3638,7 +3644,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -3931,7 +3937,7 @@
   <dimension ref="A2:J24"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -4098,13 +4104,25 @@
       <c r="J9" s="73"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B10" s="74"/>
+      <c r="B10" s="74" t="s">
+        <v>55</v>
+      </c>
       <c r="C10" s="75"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
+      <c r="D10" s="74" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10" s="74" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="74" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="74" t="s">
+        <v>26</v>
+      </c>
       <c r="I10" s="77"/>
       <c r="J10" s="77"/>
     </row>
@@ -4483,8 +4501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8885B33B-6004-4066-985A-D9E4166DC0DF}">
   <dimension ref="B2:L15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -4660,13 +4678,13 @@
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="116">
+      <c r="B9" s="116" t="str">
         <f>SEC_Processes!D10</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="116">
+        <v>ELE_EX_WIND_TURBINE</v>
+      </c>
+      <c r="C9" s="116" t="str">
         <f>SEC_Processes!E10</f>
-        <v>0</v>
+        <v>Wind Turbine Onshore</v>
       </c>
       <c r="D9" s="117" t="str">
         <f>SEC_Comm!C9</f>
@@ -4680,21 +4698,19 @@
         <v>1.345</v>
       </c>
       <c r="G9" s="118">
-        <v>0.45900000000000002</v>
+        <v>1</v>
       </c>
       <c r="H9" s="119">
         <f>H8</f>
         <v>31.536000000000001</v>
       </c>
       <c r="I9" s="119">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="J9" s="120">
         <v>1</v>
       </c>
-      <c r="K9" s="120">
-        <v>1</v>
-      </c>
+      <c r="K9" s="120"/>
     </row>
     <row r="14" spans="2:12">
       <c r="E14" s="121"/>
@@ -5032,6 +5048,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="56d16bfd38a93d3246b87ec2f908dfef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3e7776de10091f04de0bec4c5ba2ee03" ns2:_="">
     <xsd:import namespace="95645557-b925-4e14-b9c3-bb0dccab904e"/>
@@ -5175,22 +5206,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41AB35AE-AE16-422C-95C7-3A91F3841299}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5206,21 +5239,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56EF08F-78E3-4678-95BD-E95AAD0CE2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD59902-480B-4CEC-941E-A48B424A75C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -813,7 +813,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="141">
   <si>
     <t>Define commodities</t>
   </si>
@@ -1212,6 +1212,30 @@
   </si>
   <si>
     <t>Wind Turbine Onshore</t>
+  </si>
+  <si>
+    <t>Coal price</t>
+  </si>
+  <si>
+    <t>Fuel cost</t>
+  </si>
+  <si>
+    <t>ELE_EX_PV</t>
+  </si>
+  <si>
+    <t>PV Instalation</t>
+  </si>
+  <si>
+    <t>MIN_EX_PV</t>
+  </si>
+  <si>
+    <t>PV Mine</t>
+  </si>
+  <si>
+    <t>PV_ELE</t>
+  </si>
+  <si>
+    <t>PV</t>
   </si>
 </sst>
 </file>
@@ -2447,7 +2471,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="277"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="277" applyFont="1"/>
@@ -2657,9 +2681,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3645,7 +3666,7 @@
   <dimension ref="A2:K20"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -3687,7 +3708,7 @@
       <c r="H3" s="64"/>
       <c r="I3" s="64"/>
       <c r="J3" s="65"/>
-      <c r="K3" s="124" t="s">
+      <c r="K3" s="123" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3704,7 +3725,7 @@
       <c r="H4" s="68"/>
       <c r="I4" s="68"/>
       <c r="J4" s="69"/>
-      <c r="K4" s="124"/>
+      <c r="K4" s="123"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="A5" s="66"/>
@@ -3733,7 +3754,7 @@
         <v>10</v>
       </c>
       <c r="J5" s="69"/>
-      <c r="K5" s="124"/>
+      <c r="K5" s="123"/>
     </row>
     <row r="6" spans="1:11" ht="31.7" customHeight="1" thickBot="1">
       <c r="A6" s="66"/>
@@ -3762,7 +3783,7 @@
         <v>17</v>
       </c>
       <c r="J6" s="69"/>
-      <c r="K6" s="124"/>
+      <c r="K6" s="123"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="A7" s="66"/>
@@ -3785,7 +3806,7 @@
       <c r="H7" s="73"/>
       <c r="I7" s="73"/>
       <c r="J7" s="69"/>
-      <c r="K7" s="124"/>
+      <c r="K7" s="123"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="A8" s="66"/>
@@ -3808,7 +3829,7 @@
       <c r="H8" s="77"/>
       <c r="I8" s="77"/>
       <c r="J8" s="69"/>
-      <c r="K8" s="124"/>
+      <c r="K8" s="123"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="A9" s="66"/>
@@ -3831,91 +3852,101 @@
       <c r="H9" s="73"/>
       <c r="I9" s="73"/>
       <c r="J9" s="69"/>
-      <c r="K9" s="124"/>
+      <c r="K9" s="123"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="A10" s="66"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
+      <c r="B10" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="75" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" s="77" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="73"/>
+      <c r="G10" s="70" t="s">
+        <v>22</v>
+      </c>
       <c r="H10" s="77"/>
       <c r="I10" s="77"/>
       <c r="J10" s="69"/>
-      <c r="K10" s="124"/>
+      <c r="K10" s="123"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A11" s="66"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
       <c r="J11" s="69"/>
-      <c r="K11" s="124"/>
+      <c r="K11" s="123"/>
     </row>
     <row r="12" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A12" s="84"/>
-      <c r="B12" s="85"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="124"/>
+      <c r="A12" s="83"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="123"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="15" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B15" s="123" t="s">
+      <c r="B15" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="123"/>
+      <c r="C15" s="122"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B16" s="87" t="s">
+      <c r="B16" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="87" t="s">
+      <c r="C16" s="86" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B17" s="88" t="s">
+      <c r="B17" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="88" t="s">
+      <c r="C17" s="87" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B18" s="89" t="s">
+      <c r="B18" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="89" t="s">
+      <c r="C18" s="88" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="88" t="s">
+      <c r="B19" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="88" t="s">
+      <c r="C19" s="87" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="90" t="s">
+      <c r="B20" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="90" t="s">
+      <c r="C20" s="89" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3937,7 +3968,7 @@
   <dimension ref="A2:J24"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -3955,12 +3986,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="91"/>
+      <c r="A2" s="90"/>
       <c r="B2" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
@@ -3968,13 +3999,13 @@
         <v>37</v>
       </c>
       <c r="C4" s="67"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="B5" s="29" t="s">
@@ -4111,7 +4142,7 @@
       <c r="D10" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="E10" s="122" t="s">
+      <c r="E10" s="121" t="s">
         <v>132</v>
       </c>
       <c r="F10" s="74" t="s">
@@ -4127,108 +4158,132 @@
       <c r="J10" s="77"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B11" s="70"/>
+      <c r="B11" s="70" t="s">
+        <v>55</v>
+      </c>
       <c r="C11" s="71"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
+      <c r="D11" s="73" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="78" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="74" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="74" t="s">
+        <v>26</v>
+      </c>
       <c r="I11" s="73"/>
       <c r="J11" s="73"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B12" s="94"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="97"/>
-      <c r="J12" s="97"/>
+      <c r="B12" s="93" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="94"/>
+      <c r="D12" s="95" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="95" t="s">
+        <v>138</v>
+      </c>
+      <c r="F12" s="74" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="96"/>
+      <c r="J12" s="96"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="B16" s="98" t="s">
+      <c r="B16" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="98" t="s">
+      <c r="C16" s="97" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="98" t="s">
+      <c r="B17" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="98" t="s">
+      <c r="C17" s="97" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="98" t="s">
+      <c r="B18" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="98" t="s">
+      <c r="C18" s="97" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="98" t="s">
+      <c r="B19" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="98" t="s">
+      <c r="C19" s="97" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="98" t="s">
+      <c r="B20" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="98" t="s">
+      <c r="C20" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="98" t="s">
+      <c r="E20" s="97" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="98" t="s">
+      <c r="B21" s="97" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="98" t="s">
+      <c r="C21" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="98" t="s">
+      <c r="E21" s="97" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="98" t="s">
+      <c r="B22" s="97" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="98" t="s">
+      <c r="C22" s="97" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="98" t="s">
+      <c r="E22" s="97" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="98" t="s">
+      <c r="B23" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="98" t="s">
+      <c r="C23" s="97" t="s">
         <v>79</v>
       </c>
-      <c r="E23" s="98" t="s">
+      <c r="E23" s="97" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="98" t="s">
+      <c r="B24" s="97" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="98" t="s">
+      <c r="C24" s="97" t="s">
         <v>81</v>
       </c>
     </row>
@@ -4246,7 +4301,7 @@
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4462,10 +4517,21 @@
       <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="13"/>
+      <c r="B10" s="11" t="str">
+        <f>SEC_Processes!D12</f>
+        <v>MIN_EX_PV</v>
+      </c>
+      <c r="C10" s="11" t="str">
+        <f>SEC_Processes!E12</f>
+        <v>PV Mine</v>
+      </c>
+      <c r="D10" s="15" t="str">
+        <f>SEC_Comm!C10</f>
+        <v>PV_ELE</v>
+      </c>
+      <c r="E10" s="13">
+        <v>1E-3</v>
+      </c>
       <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:20" ht="15.75" customHeight="1">
@@ -4499,10 +4565,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8885B33B-6004-4066-985A-D9E4166DC0DF}">
-  <dimension ref="B2:L15"/>
+  <dimension ref="B2:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -4517,39 +4583,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="18">
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="98" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="104"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="103"/>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="105"/>
-      <c r="C3" s="106"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="104"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="105"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="103"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="E4" s="108" t="s">
+      <c r="E4" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="108"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
     </row>
     <row r="5" spans="2:12">
       <c r="B5" s="49" t="s">
@@ -4642,81 +4708,132 @@
       </c>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="111" t="str">
+      <c r="B8" s="110" t="str">
         <f>SEC_Processes!D7</f>
         <v>ELE_EX_BELCHATOW</v>
       </c>
-      <c r="C8" s="111" t="str">
+      <c r="C8" s="110" t="str">
         <f>SEC_Processes!E7</f>
         <v>Belchatow Power Plant</v>
       </c>
-      <c r="D8" s="112" t="str">
+      <c r="D8" s="111" t="str">
         <f>SEC_Comm!C7</f>
         <v>BROWN_COAL</v>
       </c>
-      <c r="E8" s="112" t="str">
+      <c r="E8" s="111" t="str">
         <f>SEC_Comm!C8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="F8" s="113">
+      <c r="F8" s="112">
         <v>6.5</v>
       </c>
-      <c r="G8" s="113">
+      <c r="G8" s="112">
         <v>0.3</v>
       </c>
-      <c r="H8" s="114">
+      <c r="H8" s="113">
         <v>31.536000000000001</v>
       </c>
-      <c r="I8" s="114">
+      <c r="I8" s="113">
         <v>1</v>
       </c>
-      <c r="J8" s="115">
+      <c r="J8" s="114">
         <v>1</v>
       </c>
-      <c r="K8" s="114">
+      <c r="K8" s="113">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="116" t="str">
+      <c r="B9" s="110" t="str">
+        <f>SEC_Processes!D11</f>
+        <v>ELE_EX_PV</v>
+      </c>
+      <c r="C9" s="110" t="str">
+        <f>SEC_Processes!E11</f>
+        <v>PV Instalation</v>
+      </c>
+      <c r="D9" s="111" t="str">
+        <f>SEC_Comm!C10</f>
+        <v>PV_ELE</v>
+      </c>
+      <c r="E9" s="111" t="str">
+        <f>SEC_Comm!C8</f>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="F9" s="112">
+        <v>2</v>
+      </c>
+      <c r="G9" s="112">
+        <v>1</v>
+      </c>
+      <c r="H9" s="113">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="I9" s="113">
+        <v>0.33</v>
+      </c>
+      <c r="J9" s="114">
+        <v>1</v>
+      </c>
+      <c r="K9" s="113"/>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="115" t="str">
         <f>SEC_Processes!D10</f>
         <v>ELE_EX_WIND_TURBINE</v>
       </c>
-      <c r="C9" s="116" t="str">
+      <c r="C10" s="115" t="str">
         <f>SEC_Processes!E10</f>
         <v>Wind Turbine Onshore</v>
       </c>
-      <c r="D9" s="117" t="str">
+      <c r="D10" s="116" t="str">
         <f>SEC_Comm!C9</f>
         <v>WIND_ON</v>
       </c>
-      <c r="E9" s="117" t="str">
+      <c r="E10" s="116" t="str">
         <f>SEC_Comm!C8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="F9" s="118">
+      <c r="F10" s="117">
         <v>1.345</v>
       </c>
-      <c r="G9" s="118">
+      <c r="G10" s="117">
         <v>1</v>
       </c>
-      <c r="H9" s="119">
+      <c r="H10" s="118">
         <f>H8</f>
         <v>31.536000000000001</v>
       </c>
-      <c r="I9" s="119">
+      <c r="I10" s="118">
         <v>0.33</v>
       </c>
-      <c r="J9" s="120">
+      <c r="J10" s="119">
         <v>1</v>
       </c>
-      <c r="K9" s="120"/>
-    </row>
-    <row r="14" spans="2:12">
-      <c r="E14" s="121"/>
+      <c r="K10" s="119"/>
     </row>
     <row r="15" spans="2:12">
-      <c r="E15" s="121"/>
+      <c r="E15" s="120"/>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="E16" s="120"/>
+    </row>
+    <row r="17" spans="4:5">
+      <c r="D17" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="E17" s="58">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5">
+      <c r="D18" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="E18" s="58">
+        <f>100/G8</f>
+        <v>333.33333333333337</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4742,38 +4859,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="18">
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="103"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="102"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="105"/>
-      <c r="C3" s="106"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="103"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="105"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="102"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="E4" s="108" t="s">
+      <c r="E4" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="108"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="49" t="s">
@@ -4840,42 +4957,42 @@
       </c>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="111"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="114"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="113"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="113"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="120"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="119"/>
+      <c r="K8" s="119"/>
     </row>
     <row r="10" spans="2:11" ht="18">
-      <c r="B10" s="99" t="s">
+      <c r="B10" s="98" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="99"/>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="108" t="s">
+      <c r="B15" s="107" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4897,32 +5014,32 @@
       <c r="B17" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="C17" s="125" t="s">
+      <c r="C17" s="124" t="s">
         <v>119</v>
       </c>
-      <c r="D17" s="125"/>
-      <c r="E17" s="125"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="124"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="111" t="str">
+      <c r="B18" s="110" t="str">
         <f>SEC_Comm!C8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="C18" s="112">
+      <c r="C18" s="111">
         <v>200</v>
       </c>
-      <c r="D18" s="112"/>
-      <c r="E18" s="113"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="112"/>
       <c r="G18" s="58">
         <f>+C18/PP!G8</f>
         <v>666.66666666666674</v>
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="116"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="118"/>
+      <c r="B19" s="115"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4998,11 +5115,11 @@
       <c r="C6" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="126" t="s">
+      <c r="D6" s="125" t="s">
         <v>126</v>
       </c>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="39"/>

--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD59902-480B-4CEC-941E-A48B424A75C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF684027-6713-4C8C-A963-5F2D0D6A9311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -813,7 +813,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="142">
   <si>
     <t>Define commodities</t>
   </si>
@@ -1236,6 +1236,9 @@
   </si>
   <si>
     <t>PV</t>
+  </si>
+  <si>
+    <t>WEEKLY</t>
   </si>
 </sst>
 </file>
@@ -3666,7 +3669,7 @@
   <dimension ref="A2:K20"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -3967,8 +3970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:J24"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -4083,7 +4086,7 @@
         <v>58</v>
       </c>
       <c r="H7" s="70" t="s">
-        <v>26</v>
+        <v>141</v>
       </c>
       <c r="I7" s="73"/>
       <c r="J7" s="73"/>
@@ -4301,7 +4304,7 @@
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4567,7 +4570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8885B33B-6004-4066-985A-D9E4166DC0DF}">
   <dimension ref="B2:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
@@ -5165,21 +5168,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="56d16bfd38a93d3246b87ec2f908dfef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3e7776de10091f04de0bec4c5ba2ee03" ns2:_="">
     <xsd:import namespace="95645557-b925-4e14-b9c3-bb0dccab904e"/>
@@ -5323,24 +5311,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41AB35AE-AE16-422C-95C7-3A91F3841299}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5356,4 +5342,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF684027-6713-4C8C-A963-5F2D0D6A9311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58716982-14BD-458F-9205-916F434379A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -813,7 +813,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="153">
   <si>
     <t>Define commodities</t>
   </si>
@@ -1239,6 +1239,39 @@
   </si>
   <si>
     <t>WEEKLY</t>
+  </si>
+  <si>
+    <t>~FI_T:</t>
+  </si>
+  <si>
+    <t>COM_FR</t>
+  </si>
+  <si>
+    <t>1S1W1D</t>
+  </si>
+  <si>
+    <t>1S1W2D</t>
+  </si>
+  <si>
+    <t>1S2W1D</t>
+  </si>
+  <si>
+    <t>1S2W2D</t>
+  </si>
+  <si>
+    <t>2S1W1D</t>
+  </si>
+  <si>
+    <t>2S1W2D</t>
+  </si>
+  <si>
+    <t>2S2W1D</t>
+  </si>
+  <si>
+    <t>2S2W2D</t>
+  </si>
+  <si>
+    <t>TimeSlice</t>
   </si>
 </sst>
 </file>
@@ -1638,7 +1671,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1833,8 +1866,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -2126,6 +2171,15 @@
       </top>
       <bottom style="medium">
         <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2474,7 +2528,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="277"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="277" applyFont="1"/>
@@ -2826,6 +2880,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="12" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="340">
@@ -3970,7 +4033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -4847,10 +4910,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31854235-9EEE-44B2-8649-8E7FE48F8F70}">
-  <dimension ref="B2:K19"/>
+  <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="141" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="141" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5043,6 +5106,129 @@
       <c r="C19" s="116"/>
       <c r="D19" s="116"/>
       <c r="E19" s="117"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="107" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25" s="129" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="26.25" thickBot="1">
+      <c r="B26" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="130"/>
+      <c r="D26" s="130"/>
+      <c r="E26"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="110" t="str">
+        <f>SEC_Comm!C8</f>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="C27" s="126" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" s="112">
+        <v>0.15</v>
+      </c>
+      <c r="E27"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="110" t="str">
+        <f>SEC_Comm!C8</f>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="C28" s="127" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" s="112">
+        <v>0.1</v>
+      </c>
+      <c r="E28"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="110" t="str">
+        <f>SEC_Comm!C8</f>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="C29" s="126" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="112">
+        <v>0.15</v>
+      </c>
+      <c r="E29"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="110" t="str">
+        <f>SEC_Comm!C8</f>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="C30" s="127" t="s">
+        <v>147</v>
+      </c>
+      <c r="D30" s="112">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="110" t="str">
+        <f>SEC_Comm!C8</f>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="C31" s="126" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="112">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="110" t="str">
+        <f>SEC_Comm!C8</f>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="C32" s="127" t="s">
+        <v>149</v>
+      </c>
+      <c r="D32" s="112">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="110" t="str">
+        <f>SEC_Comm!C8</f>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="C33" s="126" t="s">
+        <v>150</v>
+      </c>
+      <c r="D33" s="112">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="13.5" thickBot="1">
+      <c r="B34" s="110" t="str">
+        <f>SEC_Comm!C8</f>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="C34" s="128" t="s">
+        <v>151</v>
+      </c>
+      <c r="D34" s="112">
+        <v>0.1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5168,6 +5354,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="56d16bfd38a93d3246b87ec2f908dfef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3e7776de10091f04de0bec4c5ba2ee03" ns2:_="">
     <xsd:import namespace="95645557-b925-4e14-b9c3-bb0dccab904e"/>
@@ -5311,22 +5512,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41AB35AE-AE16-422C-95C7-3A91F3841299}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5342,21 +5545,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58716982-14BD-458F-9205-916F434379A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959CA36F-886B-4FCA-8825-A3214AB0F4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -813,7 +813,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="141">
   <si>
     <t>Define commodities</t>
   </si>
@@ -1236,42 +1236,6 @@
   </si>
   <si>
     <t>PV</t>
-  </si>
-  <si>
-    <t>WEEKLY</t>
-  </si>
-  <si>
-    <t>~FI_T:</t>
-  </si>
-  <si>
-    <t>COM_FR</t>
-  </si>
-  <si>
-    <t>1S1W1D</t>
-  </si>
-  <si>
-    <t>1S1W2D</t>
-  </si>
-  <si>
-    <t>1S2W1D</t>
-  </si>
-  <si>
-    <t>1S2W2D</t>
-  </si>
-  <si>
-    <t>2S1W1D</t>
-  </si>
-  <si>
-    <t>2S1W2D</t>
-  </si>
-  <si>
-    <t>2S2W1D</t>
-  </si>
-  <si>
-    <t>2S2W2D</t>
-  </si>
-  <si>
-    <t>TimeSlice</t>
   </si>
 </sst>
 </file>
@@ -1671,7 +1635,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1866,20 +1830,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="29">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -2171,15 +2123,6 @@
       </top>
       <bottom style="medium">
         <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2528,7 +2471,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="277"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="277" applyFont="1"/>
@@ -2880,15 +2823,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="12" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="340">
@@ -3732,7 +3666,7 @@
   <dimension ref="A2:K20"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -4034,7 +3968,7 @@
   <dimension ref="A2:J24"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -4149,7 +4083,7 @@
         <v>58</v>
       </c>
       <c r="H7" s="70" t="s">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="I7" s="73"/>
       <c r="J7" s="73"/>
@@ -4634,7 +4568,7 @@
   <dimension ref="B2:L18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -4910,10 +4844,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31854235-9EEE-44B2-8649-8E7FE48F8F70}">
-  <dimension ref="B2:K34"/>
+  <dimension ref="B2:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="141" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="141" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5106,129 +5040,6 @@
       <c r="C19" s="116"/>
       <c r="D19" s="116"/>
       <c r="E19" s="117"/>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="107" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="53" t="s">
-        <v>152</v>
-      </c>
-      <c r="D25" s="129" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="26.25" thickBot="1">
-      <c r="B26" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="C26" s="130"/>
-      <c r="D26" s="130"/>
-      <c r="E26"/>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="110" t="str">
-        <f>SEC_Comm!C8</f>
-        <v>ELEC_HV</v>
-      </c>
-      <c r="C27" s="126" t="s">
-        <v>144</v>
-      </c>
-      <c r="D27" s="112">
-        <v>0.15</v>
-      </c>
-      <c r="E27"/>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="110" t="str">
-        <f>SEC_Comm!C8</f>
-        <v>ELEC_HV</v>
-      </c>
-      <c r="C28" s="127" t="s">
-        <v>145</v>
-      </c>
-      <c r="D28" s="112">
-        <v>0.1</v>
-      </c>
-      <c r="E28"/>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="B29" s="110" t="str">
-        <f>SEC_Comm!C8</f>
-        <v>ELEC_HV</v>
-      </c>
-      <c r="C29" s="126" t="s">
-        <v>146</v>
-      </c>
-      <c r="D29" s="112">
-        <v>0.15</v>
-      </c>
-      <c r="E29"/>
-    </row>
-    <row r="30" spans="2:7">
-      <c r="B30" s="110" t="str">
-        <f>SEC_Comm!C8</f>
-        <v>ELEC_HV</v>
-      </c>
-      <c r="C30" s="127" t="s">
-        <v>147</v>
-      </c>
-      <c r="D30" s="112">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
-      <c r="B31" s="110" t="str">
-        <f>SEC_Comm!C8</f>
-        <v>ELEC_HV</v>
-      </c>
-      <c r="C31" s="126" t="s">
-        <v>148</v>
-      </c>
-      <c r="D31" s="112">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7">
-      <c r="B32" s="110" t="str">
-        <f>SEC_Comm!C8</f>
-        <v>ELEC_HV</v>
-      </c>
-      <c r="C32" s="127" t="s">
-        <v>149</v>
-      </c>
-      <c r="D32" s="112">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="110" t="str">
-        <f>SEC_Comm!C8</f>
-        <v>ELEC_HV</v>
-      </c>
-      <c r="C33" s="126" t="s">
-        <v>150</v>
-      </c>
-      <c r="D33" s="112">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" ht="13.5" thickBot="1">
-      <c r="B34" s="110" t="str">
-        <f>SEC_Comm!C8</f>
-        <v>ELEC_HV</v>
-      </c>
-      <c r="C34" s="128" t="s">
-        <v>151</v>
-      </c>
-      <c r="D34" s="112">
-        <v>0.1</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5354,21 +5165,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="56d16bfd38a93d3246b87ec2f908dfef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3e7776de10091f04de0bec4c5ba2ee03" ns2:_="">
     <xsd:import namespace="95645557-b925-4e14-b9c3-bb0dccab904e"/>
@@ -5512,24 +5308,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41AB35AE-AE16-422C-95C7-3A91F3841299}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5545,4 +5339,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Gucwa\VT_MODEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959CA36F-886B-4FCA-8825-A3214AB0F4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E8D149-805F-4B73-96F6-B6318C52C3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4847,7 +4847,7 @@
   <dimension ref="B2:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="141" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5028,8 +5028,14 @@
       <c r="C18" s="111">
         <v>200</v>
       </c>
-      <c r="D18" s="111"/>
-      <c r="E18" s="112"/>
+      <c r="D18" s="111">
+        <f>C18*1.1</f>
+        <v>220.00000000000003</v>
+      </c>
+      <c r="E18" s="111">
+        <f>D18*1.1</f>
+        <v>242.00000000000006</v>
+      </c>
       <c r="G18" s="58">
         <f>+C18/PP!G8</f>
         <v>666.66666666666674</v>
@@ -5165,6 +5171,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="56d16bfd38a93d3246b87ec2f908dfef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3e7776de10091f04de0bec4c5ba2ee03" ns2:_="">
     <xsd:import namespace="95645557-b925-4e14-b9c3-bb0dccab904e"/>
@@ -5308,22 +5329,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41AB35AE-AE16-422C-95C7-3A91F3841299}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5339,21 +5362,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>